--- a/Whatsapp Audiocall Testcases.xlsx
+++ b/Whatsapp Audiocall Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95CA451-52D2-4F49-B773-DAF25F78C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8996B5-5B8C-4A9B-B0C5-BA96F27EDE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91CE3DC0-E265-4093-BC15-6D58448AC814}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -722,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -738,7 +738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -778,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -786,7 +786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -794,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -802,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -818,7 +818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -826,7 +826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -834,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -850,7 +850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -858,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -866,7 +866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -890,7 +890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -898,7 +898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -906,7 +906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -914,7 +914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -922,7 +922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -970,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -978,7 +978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>54</v>
       </c>
